--- a/CCS_project_tracker.xlsx
+++ b/CCS_project_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/hhemanth_stanford_edu/Documents/Stanford/Quarter 5/RA - CCS Project/Literature and Document Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1977" documentId="8_{5EAAA419-C5F2-EE49-AD1E-CC7061F63402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B8D619-078F-D44B-A06B-D4604D71D2F5}"/>
+  <xr:revisionPtr revIDLastSave="2054" documentId="8_{5EAAA419-C5F2-EE49-AD1E-CC7061F63402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61CCB0EE-9063-3D43-B9DD-932C6351667B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F2BB26B3-30B8-AE45-9DCA-FB8D6E00F736}"/>
   </bookViews>
@@ -946,6 +946,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{4E7A6C06-ECE9-9646-A205-99370A7FC1A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hemanth Hariharan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Page 5 of 751 in project narrative. Weighted average computed using thicknesses of G4, G1 and Holt</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M30" authorId="0" shapeId="0" xr:uid="{B6F67FB3-B22D-904C-84EE-BE56FB9BD184}">
       <text>
         <r>
@@ -976,6 +1009,39 @@
             <family val="2"/>
           </rPr>
           <t>Figure 8 - page 80 of 242</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P30" authorId="0" shapeId="0" xr:uid="{AEC4428A-3E7A-EB4F-9DA1-0A176B99625B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hemanth Hariharan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table 6 - page 83 of 242. Since the plume and the AoR are combined, all injection rates were added.</t>
         </r>
       </text>
     </comment>
@@ -1108,6 +1174,105 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Many of these are early-stage and hence draft permits are not available </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J78" authorId="0" shapeId="0" xr:uid="{412FA5AE-A56A-FD43-A5D9-CD198B024C0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hemanth Hariharan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table 2.4-6: page 140 of 2087, weighted average using thicknesses from page 135 of 2087 (64U: AVG(60,100), 64W: AVG(260,600))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P78" authorId="0" shapeId="0" xr:uid="{CAAEF0BB-FD76-674A-8F53-4883C9D82E18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hemanth Hariharan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table 12 - page 18 of 286 - since AoR is common, adding all injection rates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y78" authorId="0" shapeId="0" xr:uid="{9AE22FFD-27B7-F643-9010-3E974D6BC71E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hemanth Hariharan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Page 54 of 286 - AoR entirely outside plume</t>
         </r>
       </text>
     </comment>
@@ -2918,7 +3083,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="351">
   <si>
     <t>Project</t>
   </si>
@@ -4243,7 +4408,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{6686140D-CE07-4B46-8B5C-D3353CDC94FF}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4576,10 +4758,10 @@
   <dimension ref="A2:AA93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4593,7 +4775,7 @@
     <col min="7" max="7" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -4619,7 +4801,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="17" x14ac:dyDescent="0.2">
@@ -4658,7 +4840,7 @@
       </c>
       <c r="G5" s="7">
         <f>SUM(G7:G93)</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -5024,12 +5206,14 @@
       <c r="D13" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>15</v>
@@ -5367,7 +5551,9 @@
       <c r="D23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="G23" s="4">
         <v>2</v>
       </c>
@@ -5468,19 +5654,25 @@
       <c r="B30" s="8">
         <v>24</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>57</v>
       </c>
+      <c r="E30" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="8">
+        <f>(1.2*(4600-4500) + 12*(5000-4600) + 18.8*(5200-5000))/(5200-4500)</f>
+        <v>12.4</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="8">
@@ -5489,7 +5681,10 @@
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="8">
+        <f>(450+1112+450)*365/1000000</f>
+        <v>0.73438000000000003</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="8">
@@ -5502,12 +5697,20 @@
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="W30" s="2">
+        <f>LOG10(9.869233E-16*J30*M30/P30)</f>
+        <v>-11.455996458711359</v>
+      </c>
+      <c r="X30" s="2">
+        <f>S30*T30*9.81/10^5</f>
+        <v>10.955754052848004</v>
+      </c>
       <c r="Y30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="31" spans="2:27" ht="34" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -5833,11 +6036,14 @@
       <c r="B50" s="8">
         <v>44</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="14" t="s">
         <v>344</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>57</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -5848,7 +6054,7 @@
       <c r="B51" s="8">
         <v>45</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="35" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -5862,7 +6068,7 @@
       <c r="B52" s="8">
         <v>46</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -5890,7 +6096,7 @@
       <c r="B54" s="8">
         <v>48</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="37" t="s">
@@ -5922,7 +6128,7 @@
       <c r="B56" s="8">
         <v>50</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D56" s="37" t="s">
@@ -6355,13 +6561,19 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="8">
+        <f>((55.967*430)+(0.01*80))/(430+80)</f>
+        <v>47.189431372549016</v>
+      </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
+      <c r="P78" s="8">
+        <f>(1000*9*365)/1000000</f>
+        <v>3.2850000000000001</v>
+      </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -6370,7 +6582,9 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="Y78" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="2:27" ht="34" x14ac:dyDescent="0.2">
@@ -6983,7 +7197,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:AA93" xr:uid="{EAC5B77C-6FC8-B248-905A-A262F1E52B38}"/>
+  <autoFilter ref="B6:AA93" xr:uid="{EAC5B77C-6FC8-B248-905A-A262F1E52B38}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:AA93">
+      <sortCondition ref="B6:B93"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{B3C950E6-A60A-6947-8A71-77CDFD3A1B38}"/>
     <hyperlink ref="C16" r:id="rId2" xr:uid="{E3DA6562-26FF-6046-ACAE-7AF0E8725973}"/>
@@ -7014,10 +7232,10 @@
   <dimension ref="A2:Z58"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
